--- a/数据表格.xlsx
+++ b/数据表格.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robot.Li\Desktop\产业前沿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tesp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="行业市场规模" sheetId="1" r:id="rId1"/>
     <sheet name="渗透率" sheetId="2" r:id="rId2"/>
     <sheet name="搜索指数" sheetId="3" r:id="rId3"/>
-    <sheet name="价格" sheetId="4" r:id="rId4"/>
+    <sheet name="专利" sheetId="5" r:id="rId4"/>
+    <sheet name="价格" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>2018E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +303,27 @@
   <si>
     <t>南方硅谷、新岸线、Realtek、联盛德相继推出WIFI SOC芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中度(专利申请数前十的实体申请专利数占总数的比例)</t>
+  </si>
+  <si>
+    <t>&lt;=2012</t>
+  </si>
+  <si>
+    <t>中国发明申请</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>中国实用新型</t>
+  </si>
+  <si>
+    <t>国外专利</t>
+  </si>
+  <si>
+    <t>绝对数量</t>
   </si>
 </sst>
 </file>
@@ -386,7 +408,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3049,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6766,6 +6787,206 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>0.19581280788177341</v>
+      </c>
+      <c r="E2">
+        <v>0.23166023166023167</v>
+      </c>
+      <c r="F2">
+        <v>0.21574973031283712</v>
+      </c>
+      <c r="G2">
+        <v>0.26448893572181242</v>
+      </c>
+      <c r="H2">
+        <v>0.16313059877416314</v>
+      </c>
+      <c r="I2">
+        <v>0.13317073170731708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>0.10745891276864729</v>
+      </c>
+      <c r="E3">
+        <v>0.13354037267080746</v>
+      </c>
+      <c r="F3">
+        <v>0.18271119842829076</v>
+      </c>
+      <c r="G3">
+        <v>0.13481584433634469</v>
+      </c>
+      <c r="H3">
+        <v>7.7655677655677657E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.1754385964912284E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>0.24934810951760103</v>
+      </c>
+      <c r="C4">
+        <v>0.45323741007194246</v>
+      </c>
+      <c r="D4">
+        <v>0.38719512195121952</v>
+      </c>
+      <c r="E4">
+        <v>0.35451505016722407</v>
+      </c>
+      <c r="F4">
+        <v>0.45274725274725275</v>
+      </c>
+      <c r="G4">
+        <v>0.2986003110419907</v>
+      </c>
+      <c r="H4">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="I4">
+        <v>0.22349570200573066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>812</v>
+      </c>
+      <c r="E7">
+        <v>518</v>
+      </c>
+      <c r="F7">
+        <v>927</v>
+      </c>
+      <c r="G7">
+        <v>1898</v>
+      </c>
+      <c r="H7">
+        <v>2121</v>
+      </c>
+      <c r="I7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>791</v>
+      </c>
+      <c r="E8">
+        <v>322</v>
+      </c>
+      <c r="F8">
+        <v>509</v>
+      </c>
+      <c r="G8">
+        <v>1439</v>
+      </c>
+      <c r="H8">
+        <v>1365</v>
+      </c>
+      <c r="I8">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>3674</v>
+      </c>
+      <c r="E9">
+        <v>299</v>
+      </c>
+      <c r="F9">
+        <v>455</v>
+      </c>
+      <c r="G9">
+        <v>643</v>
+      </c>
+      <c r="H9">
+        <v>572</v>
+      </c>
+      <c r="I9">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D23"/>
   <sheetViews>
